--- a/Documentos proyecto San Ambiente/Fase3/Reporte transmision de pruebas/Reporte transmision de pruebas.xlsx
+++ b/Documentos proyecto San Ambiente/Fase3/Reporte transmision de pruebas/Reporte transmision de pruebas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SanAmbiente\Proyecto-Sanambiente\Documentos proyecto San Ambiente\Fase3\Reporte transmision de pruebas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07498895-F2D1-46DB-BF29-A69E27E9DD6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D33A78C-C4E0-4D75-850E-D783C10BA38C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{236CEC7A-59F9-4172-9042-B34D2D980E1E}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>ITEMS</t>
   </si>
@@ -112,15 +112,29 @@
   </si>
   <si>
     <t>na</t>
+  </si>
+  <si>
+    <t>REPORTE TRANSMISION DE PRUEBAS</t>
+  </si>
+  <si>
+    <t>º</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -234,24 +248,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -259,15 +258,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -587,10 +608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{599F4374-A282-4A36-BBFE-1C0C68ED6090}">
-  <dimension ref="B4:G16"/>
+  <dimension ref="B3:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="B10" sqref="B10:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -599,182 +620,199 @@
     <col min="4" max="4" width="40.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="3" spans="2:7" ht="21" x14ac:dyDescent="0.35">
+      <c r="B3" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+    </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="10" t="s">
+      <c r="C4" s="13"/>
+      <c r="D4" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
     </row>
     <row r="5" spans="2:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="8" t="s">
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="9" t="s">
+      <c r="C6" s="10"/>
+      <c r="D6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="12"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="5"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="9" t="s">
+      <c r="C7" s="10"/>
+      <c r="D7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="14"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="12"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="5"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7" t="s">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="5"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="9" t="s">
+      <c r="C9" s="10"/>
+      <c r="D9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="5"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="9" t="s">
+      <c r="C10" s="10"/>
+      <c r="D10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="9" t="s">
+      <c r="C11" s="10"/>
+      <c r="D11" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="12"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="5"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="9" t="s">
+      <c r="C12" s="10"/>
+      <c r="D12" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="9" t="s">
+      <c r="C13" s="10"/>
+      <c r="D13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="5"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="9" t="s">
+      <c r="C14" s="10"/>
+      <c r="D14" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="9" t="s">
+      <c r="C15" s="10"/>
+      <c r="D15" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="13"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="5"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="9" t="s">
+      <c r="C16" s="10"/>
+      <c r="D16" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="5"/>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="8" t="s">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="14">
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Documentos proyecto San Ambiente/Fase3/Reporte transmision de pruebas/Reporte transmision de pruebas.xlsx
+++ b/Documentos proyecto San Ambiente/Fase3/Reporte transmision de pruebas/Reporte transmision de pruebas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SanAmbiente\Proyecto-Sanambiente\Documentos proyecto San Ambiente\Fase3\Reporte transmision de pruebas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D33A78C-C4E0-4D75-850E-D783C10BA38C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83064D71-D716-44A4-9461-03038E05B1C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{236CEC7A-59F9-4172-9042-B34D2D980E1E}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>ITEMS</t>
   </si>
@@ -115,9 +115,6 @@
   </si>
   <si>
     <t>REPORTE TRANSMISION DE PRUEBAS</t>
-  </si>
-  <si>
-    <t>º</t>
   </si>
 </sst>
 </file>
@@ -162,13 +159,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -260,10 +257,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -288,7 +285,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -611,7 +608,7 @@
   <dimension ref="B3:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:C10"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -678,7 +675,7 @@
       <c r="D7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="7"/>
+      <c r="E7" s="6"/>
       <c r="F7" s="1"/>
       <c r="G7" s="5"/>
     </row>
@@ -690,7 +687,7 @@
       <c r="D8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="17"/>
+      <c r="E8" s="8"/>
       <c r="F8" s="1"/>
       <c r="G8" s="5"/>
     </row>
@@ -702,7 +699,7 @@
       <c r="D9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="17"/>
+      <c r="E9" s="8"/>
       <c r="F9" s="1"/>
       <c r="G9" s="5"/>
     </row>
@@ -716,7 +713,7 @@
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="G10" s="5"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="9" t="s">
@@ -738,7 +735,7 @@
       <c r="D12" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="6"/>
+      <c r="E12" s="17"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
@@ -750,7 +747,7 @@
       <c r="D13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="17"/>
+      <c r="E13" s="8"/>
       <c r="F13" s="1"/>
       <c r="G13" s="5"/>
     </row>
@@ -762,7 +759,7 @@
       <c r="D14" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="6"/>
+      <c r="E14" s="17"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
@@ -774,7 +771,7 @@
       <c r="D15" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="17"/>
+      <c r="E15" s="8"/>
       <c r="F15" s="1"/>
       <c r="G15" s="5"/>
     </row>
@@ -786,17 +783,20 @@
       <c r="D16" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="17"/>
+      <c r="E16" s="8"/>
       <c r="F16" s="1"/>
       <c r="G16" s="5"/>
     </row>
     <row r="18" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D18" s="8" t="s">
-        <v>28</v>
-      </c>
+      <c r="D18" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
@@ -806,11 +806,6 @@
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Documentos proyecto San Ambiente/Fase3/Reporte transmision de pruebas/Reporte transmision de pruebas.xlsx
+++ b/Documentos proyecto San Ambiente/Fase3/Reporte transmision de pruebas/Reporte transmision de pruebas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SanAmbiente\Proyecto-Sanambiente\Documentos proyecto San Ambiente\Fase3\Reporte transmision de pruebas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83064D71-D716-44A4-9461-03038E05B1C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F4897D7-708A-4CF3-95FF-C8C9100229F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{236CEC7A-59F9-4172-9042-B34D2D980E1E}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>ITEMS</t>
   </si>
@@ -115,6 +115,9 @@
   </si>
   <si>
     <t>REPORTE TRANSMISION DE PRUEBAS</t>
+  </si>
+  <si>
+    <t>ModBus</t>
   </si>
 </sst>
 </file>
@@ -261,6 +264,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -285,7 +289,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -608,7 +611,7 @@
   <dimension ref="B3:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -618,33 +621,33 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:7" ht="21" x14ac:dyDescent="0.35">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="15" t="s">
+      <c r="C4" s="14"/>
+      <c r="D4" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
     </row>
     <row r="5" spans="2:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="16"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="17"/>
       <c r="E5" s="3" t="s">
         <v>13</v>
       </c>
@@ -656,10 +659,10 @@
       </c>
     </row>
     <row r="6" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="10"/>
+      <c r="C6" s="11"/>
       <c r="D6" s="4" t="s">
         <v>17</v>
       </c>
@@ -668,10 +671,10 @@
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="10"/>
+      <c r="C7" s="11"/>
       <c r="D7" s="4" t="s">
         <v>18</v>
       </c>
@@ -692,10 +695,10 @@
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="10"/>
+      <c r="C9" s="11"/>
       <c r="D9" s="4" t="s">
         <v>21</v>
       </c>
@@ -704,10 +707,10 @@
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="10"/>
+      <c r="C10" s="11"/>
       <c r="D10" s="4" t="s">
         <v>20</v>
       </c>
@@ -716,10 +719,10 @@
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="10"/>
+      <c r="C11" s="11"/>
       <c r="D11" s="4" t="s">
         <v>25</v>
       </c>
@@ -728,22 +731,22 @@
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="10"/>
+      <c r="C12" s="11"/>
       <c r="D12" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="17"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="10"/>
+      <c r="C13" s="11"/>
       <c r="D13" s="4" t="s">
         <v>24</v>
       </c>
@@ -752,22 +755,24 @@
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="10"/>
+      <c r="C14" s="11"/>
       <c r="D14" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="17"/>
+      <c r="E14" s="6" t="s">
+        <v>28</v>
+      </c>
       <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+      <c r="G14" s="5"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="10"/>
+      <c r="C15" s="11"/>
       <c r="D15" s="4" t="s">
         <v>22</v>
       </c>
@@ -776,10 +781,10 @@
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="10"/>
+      <c r="C16" s="11"/>
       <c r="D16" s="4" t="s">
         <v>19</v>
       </c>
@@ -792,11 +797,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
@@ -806,6 +806,11 @@
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
